--- a/Format.xlsx
+++ b/Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31031dea7aa373a1/Belgeler/Arduino/Baracuda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF52341F-4B5D-4582-8DEC-F0DBC24E18AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{DF52341F-4B5D-4582-8DEC-F0DBC24E18AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD30190-1206-42F2-979A-7BEC29D10797}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu1" sheetId="1" r:id="rId1"/>
@@ -589,12 +589,6 @@
     <t>LOG STOP</t>
   </si>
   <si>
-    <t>LOG Started</t>
-  </si>
-  <si>
-    <t>LOg Stoped</t>
-  </si>
-  <si>
     <t>POWER IC CALIB MENU</t>
   </si>
   <si>
@@ -734,6 +728,12 @@
   </si>
   <si>
     <t>Sure?  If Yes Enter</t>
+  </si>
+  <si>
+    <t>Log Stoped</t>
+  </si>
+  <si>
+    <t>Log Started</t>
   </si>
 </sst>
 </file>
@@ -5038,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F7F362-1500-415B-8742-4DD6E6C5F9F7}">
   <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I36" sqref="I35:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5977,10 +5977,10 @@
         <v>175</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6012,7 +6012,7 @@
         <v>158</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L22" s="31" t="s">
         <v>159</v>
@@ -6052,7 +6052,7 @@
         <v>162</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6089,28 +6089,28 @@
         <v>123</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="J26" s="25" t="s">
         <v>212</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6118,34 +6118,34 @@
         <v>124</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="I27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6557,8 +6557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39401F82-8C98-40FD-BFA6-89650728085B}">
   <dimension ref="K1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6574,19 +6574,19 @@
   <sheetData>
     <row r="1" spans="12:21" x14ac:dyDescent="0.3">
       <c r="O1" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R1" s="5">
         <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U1">
         <v>10</v>
@@ -6600,13 +6600,13 @@
         <v>4096</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R2" s="5">
         <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U2">
         <v>22</v>
@@ -6615,13 +6615,13 @@
     <row r="3" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P3" s="1"/>
       <c r="Q3" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R3" s="5">
         <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U3">
         <v>39</v>
@@ -6630,13 +6630,13 @@
     <row r="4" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P4" s="1"/>
       <c r="Q4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R4" s="5">
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U4">
         <v>10</v>
@@ -6645,13 +6645,13 @@
     <row r="5" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P5" s="1"/>
       <c r="Q5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R5" s="5">
         <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U5">
         <v>47</v>
@@ -6660,13 +6660,13 @@
     <row r="6" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P6" s="1"/>
       <c r="Q6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="9" spans="12:21" x14ac:dyDescent="0.3">
       <c r="T9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="12:21" x14ac:dyDescent="0.3">
@@ -6703,13 +6703,13 @@
     </row>
     <row r="13" spans="12:21" x14ac:dyDescent="0.3">
       <c r="O13" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S13">
         <v>10</v>
@@ -6720,14 +6720,14 @@
     </row>
     <row r="14" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M14" s="26">
         <f>P2*(0+R6)/(R1+R2+R3+R4+R5+R6)</f>
         <v>0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O14" s="30">
         <f>(O2/P2)*M14</f>
@@ -6746,14 +6746,14 @@
     </row>
     <row r="15" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M15" s="26">
         <f>P2*(0+R6)/(R1+R2+R3+R4+R5+R6)</f>
         <v>0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O15" s="30">
         <f>(O2/P2)*M15</f>
@@ -6766,14 +6766,14 @@
     </row>
     <row r="16" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M16" s="26">
         <f>P2*(0+R6)/(R1+R2+R3+R4+R5+R6)</f>
         <v>0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O16" s="30">
         <f>(O2/P2)*M16</f>
@@ -6786,14 +6786,14 @@
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L17" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M17" s="27">
         <f>P2*(R4+R6)/(R1+R2+R3+R4+R6)</f>
         <v>405.54455445544556</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O17" s="27">
         <f>(O2/P2)*M17</f>
@@ -6809,14 +6809,14 @@
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M18" s="26">
         <f>P2*(R4+R6)/(R1+R3+R4+R6)</f>
         <v>518.48101265822788</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O18" s="30">
         <f>(O2/P2)*M18</f>
@@ -6832,14 +6832,14 @@
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M19" s="26">
         <f>P2*(R4+R6)/(R1+R2+R4+R6)</f>
         <v>758.51851851851848</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O19" s="30">
         <f>(O2/P2)*M19</f>
@@ -6855,14 +6855,14 @@
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L20" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M20" s="27">
         <f>P2*(R5+R6)/(R1+R2+R3+R5+R6)</f>
         <v>1395.0144927536232</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O20" s="27">
         <f>(O2/P2)*M20</f>
@@ -6878,14 +6878,14 @@
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L21" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M21" s="27">
         <f>P2*(R4+R5+R6)/(R1+R2+R3+R4+R5+R6)</f>
         <v>1577.5135135135135</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O21" s="27">
         <f>(O2/P2)*M21</f>
@@ -6901,14 +6901,14 @@
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M22" s="26">
         <f>P2*(R4+R6)/(R1+R4+R6)</f>
         <v>1280</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O22" s="30">
         <f>(O2/P2)*M22</f>
@@ -6924,14 +6924,14 @@
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M23" s="26">
         <f>P2*(R5+R6)/(R1+R3+R5+R6)</f>
         <v>1659.5862068965516</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O23" s="30">
         <f>(O2/P2)*M23</f>
@@ -6947,14 +6947,14 @@
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L24" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M24" s="27">
         <f>P2*(R4+R5+R6)/(R1+R3+R4+R5+R6)</f>
         <v>1852.952380952381</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O24" s="27">
         <f>(O2/P2)*M24</f>
@@ -6970,14 +6970,14 @@
     </row>
     <row r="25" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M25" s="26">
         <f>P2*(R4+R5+R6)/(R1+R4+R5+R6)</f>
         <v>2955.3417721518986</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O25" s="30">
         <f>(O2/P2)*M25</f>
@@ -6993,14 +6993,14 @@
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M26" s="26">
         <f>P2*(R5+R6)/(R1+R2+R5+R6)</f>
         <v>2115.5164835164837</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O26" s="30">
         <f>(O2/P2)*M26</f>
@@ -7016,14 +7016,14 @@
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L27" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M27" s="27">
         <f>P2*(R4+R5+R6)/(R1+R2+R4+R5+R6)</f>
         <v>2311.6039603960394</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O27" s="27">
         <f>(O2/P2)*M27</f>
@@ -7039,14 +7039,14 @@
     </row>
     <row r="28" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M28" s="26">
         <f>P2*(R5+R6)/(R1+R5+R6)</f>
         <v>2790.0289855072465</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O28" s="30">
         <f>(O2/P2)*M28</f>
